--- a/src/main/java/TestData/UserData.xlsx
+++ b/src/main/java/TestData/UserData.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{64B83603-F00B-40B2-9F0F-C3B48B414DA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juhip\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF14954E-7690-48B5-BF55-39FF28D58153}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19440" windowHeight="11060" xr2:uid="{D73E5023-0332-43DF-BFE0-2CBD93B42ABF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D73E5023-0332-43DF-BFE0-2CBD93B42ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="UserSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -459,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884440F6-C240-4EB2-B63D-8ECF32C2B1AC}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
